--- a/biology/Zoologie/Callobius_severus/Callobius_severus.xlsx
+++ b/biology/Zoologie/Callobius_severus/Callobius_severus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callobius severus est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callobius severus est une espèce d'araignées aranéomorphes de la famille des Amaurobiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Californie, en Oregon et au Washington et au Canada en Colombie-Britannique et  en Alberta[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Californie, en Oregon et au Washington et au Canada en Colombie-Britannique et  en Alberta,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 11,5 mm et la femelle syntype 17 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 11,5 mm et la femelle syntype 17 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Amaurobius severus par Simon en 1885. Elle est placée dans le genre Callobius par Chamberlin en 1947[4].
-Amaurobius severinus[5] a été placée en synonymie par Leech en 1972[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Amaurobius severus par Simon en 1885. Elle est placée dans le genre Callobius par Chamberlin en 1947.
+Amaurobius severinus a été placée en synonymie par Leech en 1972.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1885 : « Note sur les Amaurobius de l'Amérique du Nord. » Bulletin de la Société Zoologique de France , vol. 9, p. 318-320 (texte intégral).</t>
         </is>
